--- a/en/バッチ開発補助/シェル共通設定.xlsx
+++ b/en/バッチ開発補助/シェル共通設定.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46501DE5-8FB6-4AD2-AD23-0DE6EA271DF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42104F38-F50C-492E-AED4-41B85E7E8D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="32220" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary, Instructions" sheetId="5" r:id="rId1"/>
@@ -17,77 +17,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={AB865128-CEDA-420A-B766-61155C674DDA}</author>
-  </authors>
-  <commentList>
-    <comment ref="Q20" authorId="0" shapeId="0" xr:uid="{AB865128-CEDA-420A-B766-61155C674DDA}">
-      <text>
-        <t>[スレッド化されたコメント]
-使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
-コメント:
-    TIS世古
-「"」の対応が取れていない箇所があります。
-「"Names of environment dependency item setting files"」(filesの後の「"」が抜けている)が正しいのかと思うのですが、如何でしょうか？</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={34F9517C-8FC5-4543-A1FD-442B23F88441}</author>
-    <author>tc={0ACB6AED-FF3C-4E99-BB2B-A620B6A64FFC}</author>
-  </authors>
-  <commentList>
-    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{34F9517C-8FC5-4543-A1FD-442B23F88441}">
-      <text>
-        <t>[スレッド化されたコメント]
-使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
-コメント:
-    TIS世古
-図形オブジェクト中の「Variable name:」ですが、C4セルの内容と合わせて「Variable」としてください。
-この箇所は、C4セルの項目説明だからです。</t>
-      </text>
-    </comment>
-    <comment ref="H24" authorId="1" shapeId="0" xr:uid="{0ACB6AED-FF3C-4E99-BB2B-A620B6A64FFC}">
-      <text>
-        <t>[スレッド化されたコメント]
-使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
-コメント:
-    TIS世古
-図形オブジェクト中の「Values: 」ですが、E4セルの内容と合わせて「Variable」としてください。
-この箇所は、E4セルの項目説明だからです。</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={05DEAAAF-4B8D-40BD-8D97-22E2CB6F40C5}</author>
-  </authors>
-  <commentList>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{05DEAAAF-4B8D-40BD-8D97-22E2CB6F40C5}">
-      <text>
-        <t>[スレッド化されたコメント]
-使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
-コメント:
-    TIS世古
-「sending)」の前に「(」がありません。
-記述漏れでしょうか？</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
   <si>
@@ -364,165 +293,205 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Write these in the sheet named "Names of environment dependency item setting files generated for shell script execution. File names must consist of the name of the settings file (any name can be used) + ".config". 
+    <t>Environment dependency items requiring hard coding for all shell script
+*Common shell script directory only. (This is required when loading environment dependency item setting files for execution of each unit of shell script.)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"shell-common" sheet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Common shell settings for job execution</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Common shell script directory</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Variable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Java home</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shell command path</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Job execution shell directory</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Used to specify all JAR files in the directory as a class path</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Used to specify a specific JAR file as a class path</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Used to specify a directory itself as a class path</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Used to specify JAR files to be copied during job execution</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Directory for storing JAR files copied during job execution</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Application log directory</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fault notification log directory path</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Messaging CSV log</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>File transfer base directory</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Key file configuration base directory</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>File transfer key configuration directory</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Encryption/decryption key configuration directory</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Used to specify a directory to store JAR files to be copied during job execution</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Java startup option for sending emails</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Component definition file for sending emails</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fully qualified name of main class</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Java startup option for on-demand batches</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Component definition file for on-demand batches</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Java startup option for resident batches</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Component definition file for resident batches</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Java startup option for synchronous message processes (sending)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Component definition file for synchronous message processes (sending)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Component definition file for asynchronous/delayed message processes (sending)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Java startup option for asynchronous/delayed message processes (receiving)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Component definition file for asynchronous/delayed message processes (receiving)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Write these in the sheet named "Names of environment dependency item setting files generated for shell script execution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>. File names must consist of the name of the settings file (any name can be used) + ".config". 
 The automatic shell script generation tool loads sheets ending with ".config" and creates environment dependency item setting files for shell script execution.
 Do not modify the following sheet names.
 batch_dir.config: Indicates the environment dependency items associated with the directory configuration.
 java_env.config: Indicates the environment dependency items required for Java execution.
 If these file names are modified, the automatic generation tool and the shell script that is provided need to be modified accordingly.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Environment dependency items requiring hard coding for all shell script
-*Common shell script directory only. (This is required when loading environment dependency item setting files for execution of each unit of shell script.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"shell-common" sheet</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Common shell settings for job execution</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Common shell script directory</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Variable</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Java home</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Shell command path</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Job execution shell directory</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Used to specify all JAR files in the directory as a class path</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Used to specify a specific JAR file as a class path</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Used to specify a directory itself as a class path</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Used to specify JAR files to be copied during job execution</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Directory for storing JAR files copied during job execution</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Application log directory</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Fault notification log directory path</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Messaging CSV log</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>File transfer base directory</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Key file configuration base directory</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>File transfer key configuration directory</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Encryption/decryption key configuration directory</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Used to specify a directory to store JAR files to be copied during job execution</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Java startup option for sending emails</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Component definition file for sending emails</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Fully qualified name of main class</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Java startup option for on-demand batches</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Component definition file for on-demand batches</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Java startup option for resident batches</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Component definition file for resident batches</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Java startup option for synchronous message processes (sending)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Component definition file for synchronous message processes (sending)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Java startup option for asynchronous/delayed message processes sending)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Component definition file for asynchronous/delayed message processes (sending)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Java startup option for asynchronous/delayed message processes (receiving)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Component definition file for asynchronous/delayed message processes (receiving)</t>
-    <phoneticPr fontId="2"/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java startup option for asynchronous/delayed message processes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>sending)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -565,9 +534,9 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1610,7 +1579,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
@@ -1620,17 +1589,17 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Variable name:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>Variable:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
@@ -1640,7 +1609,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
@@ -1649,7 +1618,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ Ｐゴシック"/>
             <a:ea typeface="ＭＳ Ｐゴシック"/>
@@ -1662,7 +1631,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
@@ -1672,51 +1641,94 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Description: Description of the variable (write as a comment in the shell).</a:t>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>Description: Description of the variable (write as a comment in the shell).TIS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>世古</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>TIS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>世古</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>TIS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>世古</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>Value: Value corresponding to the variable</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>　- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Values: Value corresponding to the variable</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ Ｐゴシック"/>
             <a:ea typeface="ＭＳ Ｐゴシック"/>
@@ -4553,6 +4565,9 @@
 「"」の対応が取れていない箇所があります。
 「"Names of environment dependency item setting files"」(filesの後の「"」が抜けている)が正しいのかと思うのですが、如何でしょうか？</text>
   </threadedComment>
+  <threadedComment ref="Q20" dT="2020-07-09T07:49:16.59" personId="{00000000-0000-0000-0000-000000000000}" id="{7EE28DA3-2B8A-4C06-A89E-1C957A6F8F3A}" parentId="{AB865128-CEDA-420A-B766-61155C674DDA}">
+    <text>申し訳ございません。修正致しました。</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -4563,10 +4578,16 @@
 図形オブジェクト中の「Variable name:」ですが、C4セルの内容と合わせて「Variable」としてください。
 この箇所は、C4セルの項目説明だからです。</text>
   </threadedComment>
+  <threadedComment ref="H23" dT="2020-07-09T07:50:18.26" personId="{00000000-0000-0000-0000-000000000000}" id="{6469421F-DE7F-46FC-834E-56279284A318}" parentId="{34F9517C-8FC5-4543-A1FD-442B23F88441}">
+    <text>修正致しました。</text>
+  </threadedComment>
   <threadedComment ref="H24" dT="2020-06-19T05:02:48.45" personId="{00000000-0000-0000-0000-000000000000}" id="{0ACB6AED-FF3C-4E99-BB2B-A620B6A64FFC}">
     <text>TIS世古
 図形オブジェクト中の「Values: 」ですが、E4セルの内容と合わせて「Variable」としてください。
 この箇所は、E4セルの項目説明だからです。</text>
+  </threadedComment>
+  <threadedComment ref="H24" dT="2020-07-09T07:51:53.21" personId="{00000000-0000-0000-0000-000000000000}" id="{812724F9-AFC4-4AAE-BF19-2C5923CAB025}" parentId="{0ACB6AED-FF3C-4E99-BB2B-A620B6A64FFC}">
+    <text>「Variable」は上のほうの見出しですが、「Value」でしょうか？</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -4578,88 +4599,91 @@
 「sending)」の前に「(」がありません。
 記述漏れでしょうか？</text>
   </threadedComment>
+  <threadedComment ref="D12" dT="2020-07-09T07:53:03.20" personId="{00000000-0000-0000-0000-000000000000}" id="{C700B808-8371-4671-98BE-9BC91C8EC40D}" parentId="{05DEAAAF-4B8D-40BD-8D97-22E2CB6F40C5}">
+    <text>申し訳ございません。修正致しました。</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="5.625" style="1" customWidth="1"/>
     <col min="3" max="11" width="5.125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1">
+    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="3:28">
+    <row r="17" spans="3:28" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="3:28">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.15">
       <c r="D19" s="10" t="s">
         <v>16</v>
       </c>
@@ -4692,7 +4716,7 @@
       <c r="AA19" s="11"/>
       <c r="AB19" s="12"/>
     </row>
-    <row r="20" spans="3:28" ht="193.5" customHeight="1">
+    <row r="20" spans="3:28" ht="193.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="9">
         <v>1</v>
       </c>
@@ -4711,7 +4735,7 @@
       <c r="O20" s="45"/>
       <c r="P20" s="46"/>
       <c r="Q20" s="44" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="R20" s="45"/>
       <c r="S20" s="45"/>
@@ -4725,12 +4749,12 @@
       <c r="AA20" s="45"/>
       <c r="AB20" s="46"/>
     </row>
-    <row r="21" spans="3:28" ht="75.75" customHeight="1">
+    <row r="21" spans="3:28" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="9">
         <v>2</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
@@ -4744,7 +4768,7 @@
       <c r="O21" s="47"/>
       <c r="P21" s="48"/>
       <c r="Q21" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R21" s="45"/>
       <c r="S21" s="45"/>
@@ -4769,7 +4793,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4780,21 +4803,21 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="10" width="5.125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="15" customFormat="1">
+    <row r="1" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B4" s="13" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="B4" s="13" t="s">
-        <v>77</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -4829,13 +4852,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="5.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.875" style="1" bestFit="1" customWidth="1"/>
@@ -4844,94 +4867,94 @@
     <col min="6" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="15" customFormat="1">
+    <row r="1" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25" thickBot="1">
+    <row r="7" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C7" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:12" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C8" s="18" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="27.75" thickTop="1">
+    <row r="9" spans="1:12" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="C9" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="27.75" thickBot="1">
+    <row r="10" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C10" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="41.25" thickTop="1">
+    <row r="11" spans="1:12" ht="41.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="C11" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>26</v>
@@ -4942,12 +4965,12 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="1:12" ht="27.75" thickBot="1">
+    <row r="12" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C12" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>27</v>
@@ -4958,115 +4981,114 @@
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
     </row>
-    <row r="13" spans="1:12" ht="27.75" thickTop="1">
+    <row r="13" spans="1:12" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="C13" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="27">
+    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.25" thickBot="1">
+    <row r="16" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C16" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="15" thickTop="1" thickBot="1">
+    <row r="17" spans="3:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C17" s="41" t="s">
         <v>54</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="27.75" thickTop="1">
+    <row r="18" spans="3:5" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="C18" s="33" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="27">
+    <row r="19" spans="3:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C19" s="36" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" s="37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="27.75" thickBot="1">
+    <row r="20" spans="3:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C20" s="38" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="14.25" thickTop="1"/>
-    <row r="23" spans="3:8"/>
-    <row r="24" spans="3:8"/>
+    <row r="21" spans="3:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="5.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.875" style="1" customWidth="1"/>
@@ -5075,160 +5097,160 @@
     <col min="6" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27">
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="27">
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="27">
+    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27">
+    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27">
+    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.5">
+    <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="40.5">
+    <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="40.5">
+    <row r="13" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="40.5">
+    <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="40.5">
+    <row r="15" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="27">
+    <row r="17" spans="3:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>39</v>
@@ -5240,6 +5262,5 @@
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>